--- a/Wi-Explorer.Nam.xlsx
+++ b/Wi-Explorer.Nam.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ExplorerTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>Code</t>
   </si>
@@ -621,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,19 +643,19 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -725,7 +733,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
@@ -758,11 +766,8 @@
       <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>51</v>
       </c>
@@ -802,7 +807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>52</v>
       </c>
@@ -842,7 +847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>53</v>
       </c>
@@ -882,7 +887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
@@ -922,7 +927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
@@ -959,7 +964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1.2</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1.3</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1.4</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1.5</v>
       </c>
@@ -1255,19 +1260,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
     </row>
   </sheetData>

--- a/Wi-Explorer.Nam.xlsx
+++ b/Wi-Explorer.Nam.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ExplorerTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -629,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,23 +631,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,16 +682,16 @@
         <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
         <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -720,20 +712,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
@@ -760,14 +752,14 @@
       <c r="K3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>51</v>
       </c>
@@ -797,17 +789,17 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>52</v>
       </c>
@@ -837,17 +829,17 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>53</v>
       </c>
@@ -877,17 +869,17 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
@@ -917,17 +909,17 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
@@ -954,17 +946,17 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
@@ -994,17 +986,17 @@
       <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
@@ -1034,17 +1026,17 @@
       <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
@@ -1074,17 +1066,17 @@
       <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
@@ -1114,17 +1106,17 @@
       <c r="J12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1.2</v>
       </c>
@@ -1151,14 +1143,16 @@
       <c r="K13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.3</v>
       </c>
@@ -1185,14 +1179,16 @@
       <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1.4</v>
       </c>
@@ -1219,14 +1215,16 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1.5</v>
       </c>
@@ -1253,26 +1251,28 @@
       <c r="K16" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="O16" s="7"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
     </row>
   </sheetData>

--- a/Wi-Explorer.Nam.xlsx
+++ b/Wi-Explorer.Nam.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ExplorerTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -72,9 +77,6 @@
     <t>CollapseProjectButton</t>
   </si>
   <si>
-    <t>DeleteProjectButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">wiButton </t>
   </si>
   <si>
@@ -232,17 +234,20 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>DeleteItemButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -250,7 +255,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -258,14 +263,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -361,6 +366,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -621,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,23 +639,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" customWidth="1"/>
-    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,19 +687,19 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
       <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -714,10 +722,10 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -725,12 +733,12 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
@@ -740,7 +748,7 @@
         <v>Dropdown</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="16" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -750,21 +758,21 @@
         <v>13</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -774,37 +782,37 @@
         <v>Button</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="1">SUBSTITUTE(E4,"_","-")</f>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -814,37 +822,37 @@
         <v>Button</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
@@ -854,37 +862,37 @@
         <v>Button</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
@@ -894,37 +902,37 @@
         <v>Button</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -938,30 +946,30 @@
         <v/>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -971,37 +979,37 @@
         <v>Button</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>load-16x16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
@@ -1011,37 +1019,37 @@
         <v>Button</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>load-16x16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -1051,37 +1059,37 @@
         <v>Button</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -1091,32 +1099,32 @@
         <v>Button</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1.2</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ref="F13:F16" si="3">SUBSTITUTE(E13,"_","-")</f>
@@ -1141,18 +1149,18 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1.3</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -1177,33 +1185,33 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1.4</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Button </v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -1213,33 +1221,33 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1.5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Button </v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -1249,30 +1257,30 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
     </row>
   </sheetData>

--- a/Wi-Explorer.Nam.xlsx
+++ b/Wi-Explorer.Nam.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WellInsight\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="20734" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExplorerTab" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Browse project</t>
   </si>
   <si>
-    <t>delete_16x16</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -237,12 +234,15 @@
   </si>
   <si>
     <t>DeleteItemButton</t>
+  </si>
+  <si>
+    <t>recycle_bin_empty_16x16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -636,26 +636,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.4375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="13.4375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,19 +687,19 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
       <c r="N1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -722,10 +722,10 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -733,12 +733,12 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
@@ -748,7 +748,7 @@
         <v>Dropdown</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="16" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -761,18 +761,18 @@
         <v>21</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -782,37 +782,37 @@
         <v>Button</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="1">SUBSTITUTE(E4,"_","-")</f>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -822,37 +822,37 @@
         <v>Button</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
@@ -862,37 +862,37 @@
         <v>Button</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
@@ -902,37 +902,37 @@
         <v>Button</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -946,30 +946,30 @@
         <v/>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -979,37 +979,37 @@
         <v>Button</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>load-16x16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
@@ -1019,37 +1019,37 @@
         <v>Button</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>load-16x16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -1059,37 +1059,37 @@
         <v>Button</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -1099,32 +1099,32 @@
         <v>Button</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1.2</v>
       </c>
@@ -1153,14 +1153,14 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1.3</v>
       </c>
@@ -1189,19 +1189,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1.4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1211,11 +1211,11 @@
         <v xml:space="preserve">Button </v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
-        <v>delete-16x16</v>
+        <v>recycle-bin-empty-16x16</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1225,14 +1225,14 @@
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1.5</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v xml:space="preserve">Button </v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -1261,26 +1261,26 @@
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
     </row>
   </sheetData>
